--- a/Example_data/ex_urnfield_periods.xlsx
+++ b/Example_data/ex_urnfield_periods.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="16">
   <si>
     <t>End</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Mittel/Südhessen (Herrmann 1966)</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
@@ -389,15 +395,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -413,8 +422,11 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -430,8 +442,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -447,8 +462,11 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -464,8 +482,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -481,8 +502,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -498,8 +522,11 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -515,8 +542,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -532,8 +562,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -549,8 +582,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -566,8 +602,11 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -583,8 +622,11 @@
       <c r="E11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -600,8 +642,11 @@
       <c r="E12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -617,8 +662,11 @@
       <c r="E13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -634,8 +682,11 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -651,8 +702,11 @@
       <c r="E15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -668,8 +722,11 @@
       <c r="E16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -685,8 +742,11 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -702,8 +762,11 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -711,7 +774,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="D19">
         <v>-700</v>
@@ -719,8 +782,11 @@
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -736,8 +802,11 @@
       <c r="E20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -753,8 +822,11 @@
       <c r="E21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -770,8 +842,11 @@
       <c r="E22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -787,8 +862,11 @@
       <c r="E23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -804,8 +882,11 @@
       <c r="E24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -820,6 +901,9 @@
       </c>
       <c r="E25">
         <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +918,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -847,7 +931,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Example_data/ex_urnfield_periods.xlsx
+++ b/Example_data/ex_urnfield_periods.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="16">
   <si>
     <t>End</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Mittel/Südhessen (Herrmann 1966)</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
@@ -389,15 +395,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -413,8 +422,11 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -430,8 +442,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -447,8 +462,11 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -464,8 +482,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -481,8 +502,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -498,8 +522,11 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -515,8 +542,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -532,8 +562,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -549,8 +582,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -566,8 +602,11 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -583,8 +622,11 @@
       <c r="E11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -600,8 +642,11 @@
       <c r="E12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -617,8 +662,11 @@
       <c r="E13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -634,8 +682,11 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -651,8 +702,11 @@
       <c r="E15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -668,8 +722,11 @@
       <c r="E16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -685,8 +742,11 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -702,8 +762,11 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -711,7 +774,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="D19">
         <v>-700</v>
@@ -719,13 +782,16 @@
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>-825</v>
@@ -736,8 +802,11 @@
       <c r="E20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -753,8 +822,11 @@
       <c r="E21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -770,8 +842,11 @@
       <c r="E22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -787,8 +862,11 @@
       <c r="E23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -804,8 +882,11 @@
       <c r="E24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -820,6 +901,9 @@
       </c>
       <c r="E25">
         <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +918,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -847,7 +931,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
